--- a/tests/data/test_files/time_log.xlsx
+++ b/tests/data/test_files/time_log.xlsx
@@ -1,59 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richer/Documents/PhD/Projects/BioPsyKit/tests/data/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4373400-1085-4843-9345-24227EA4F42B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2A005E-B739-B24E-A56D-4CA1F788EFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="time_log copy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="time_log" localSheetId="0">Sheet1!$A$1:$G$3</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{22D2AF3F-54DE-824D-8E91-4973DB33985E}" name="time_log" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="65001" sourceFile="/Users/Richer/Documents/PhD/Projects/BioPsyKit/tests/data/test_files/time_log.csv" tab="0" comma="1">
-      <textFields count="7">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Intervention</t>
-  </si>
-  <si>
-    <t>Vp01</t>
-  </si>
-  <si>
-    <t>Vp02</t>
-  </si>
   <si>
     <t>subject</t>
   </si>
@@ -64,6 +31,9 @@
     <t>Baseline</t>
   </si>
   <si>
+    <t>Intervention</t>
+  </si>
+  <si>
     <t>Stress</t>
   </si>
   <si>
@@ -72,38 +42,338 @@
   <si>
     <t>End</t>
   </si>
+  <si>
+    <t>Vp01</t>
+  </si>
+  <si>
+    <t>Vp02</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="64"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -111,18 +381,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,10 +592,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="time_log" connectionId="1" xr16:uid="{29DC32DE-FA2B-8242-83C6-77EC817DC74B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,14 +637,108 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -199,7 +746,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -225,7 +772,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -277,28 +824,16 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -314,7 +849,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -346,103 +881,92 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A22" sqref="A22"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.52228009259259256</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.52303240740740742</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>0.52430555555555558</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>0.52760416666666665</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>0.52916666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.5380787037037037</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.53877314814814814</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.54021990740740744</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.54027777777777775</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>0.54317129629629635</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <printOptions gridLines="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>